--- a/문서/자유수강권자 환불/논술2(교재).xlsx
+++ b/문서/자유수강권자 환불/논술2(교재).xlsx
@@ -42,7 +42,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="11">
     <font>
       <name val="Arial"/>
       <family val="2"/>
@@ -71,16 +71,93 @@
       <color rgb="00000000"/>
       <sz val="8"/>
     </font>
+    <font>
+      <name val="돋움"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <b val="1"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="돋움"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <b val="1"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="돋움"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <b val="1"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="돋움"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <b val="1"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="돋움"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <b val="1"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="돋움"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <b val="1"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="돋움"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <b val="1"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill/>
+    </fill>
+    <fill>
+      <patternFill/>
+    </fill>
+    <fill>
+      <patternFill/>
+    </fill>
+    <fill>
+      <patternFill/>
+    </fill>
+    <fill>
+      <patternFill/>
+    </fill>
+    <fill>
+      <patternFill/>
+    </fill>
+    <fill>
+      <patternFill/>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -103,11 +180,116 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
@@ -115,8 +297,33 @@
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="2" fillId="2" fontId="4" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="3" fillId="3" fontId="5" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="4" fillId="4" fontId="6" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="5" fillId="5" fontId="7" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="6" fontId="8" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="7" fillId="7" fontId="9" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="8" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -416,233 +623,38 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col bestFit="1" customWidth="1" max="2" min="1" width="12"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" width="10"/>
-    <col bestFit="1" customWidth="1" max="5" min="4" width="12"/>
-  </cols>
   <sheetData>
-    <row customHeight="1" r="1" ht="13.5" spans="1:7">
-      <c s="2" r="A1" t="s">
+    <row r="1" spans="1:7">
+      <c s="3" r="A1" t="s">
         <v>0</v>
       </c>
-      <c s="2" r="B1" t="s">
+      <c s="4" r="B1" t="s">
         <v>1</v>
       </c>
-      <c s="2" r="C1" t="s">
+      <c s="5" r="C1" t="s">
         <v>2</v>
       </c>
-      <c s="2" r="D1" t="s">
+      <c s="6" r="D1" t="s">
         <v>3</v>
       </c>
-      <c s="2" r="E1" t="s">
+      <c s="7" r="E1" t="s">
         <v>4</v>
       </c>
-      <c s="2" r="F1" t="s">
+      <c s="8" r="F1" t="s">
         <v>5</v>
       </c>
-      <c s="2" r="G1" t="s">
+      <c s="9" r="G1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row customHeight="1" r="2" ht="13.5" spans="1:7">
-      <c s="3" r="A2" t="n"/>
-      <c s="3" r="B2" t="n"/>
-      <c s="3" r="C2" t="n"/>
-      <c s="3" r="D2" t="n"/>
-      <c s="3" r="E2" t="n"/>
-      <c s="3" r="F2" t="n"/>
-      <c s="3" r="G2" t="n"/>
-    </row>
-    <row customHeight="1" r="3" ht="13.5" spans="1:7">
-      <c s="3" r="A3" t="n"/>
-      <c s="3" r="B3" t="n"/>
-      <c s="3" r="C3" t="n"/>
-      <c s="3" r="D3" t="n"/>
-      <c s="3" r="E3" t="n"/>
-      <c s="3" r="F3" t="n"/>
-      <c s="3" r="G3" t="n"/>
-    </row>
-    <row customHeight="1" r="4" ht="13.5" spans="1:7">
-      <c s="3" r="A4" t="n"/>
-      <c s="3" r="B4" t="n"/>
-      <c s="3" r="C4" t="n"/>
-      <c s="3" r="D4" t="n"/>
-      <c s="3" r="E4" t="n"/>
-      <c s="3" r="F4" t="n"/>
-      <c s="3" r="G4" t="n"/>
-    </row>
-    <row customHeight="1" r="5" ht="13.5" spans="1:7">
-      <c s="3" r="A5" t="n"/>
-      <c s="3" r="B5" t="n"/>
-      <c s="3" r="C5" t="n"/>
-      <c s="3" r="D5" t="n"/>
-      <c s="3" r="E5" t="n"/>
-      <c s="3" r="F5" t="n"/>
-      <c s="3" r="G5" t="n"/>
-    </row>
-    <row customHeight="1" r="6" ht="13.5" spans="1:7">
-      <c s="3" r="A6" t="n"/>
-      <c s="3" r="B6" t="n"/>
-      <c s="3" r="C6" t="n"/>
-      <c s="3" r="D6" t="n"/>
-      <c s="3" r="E6" t="n"/>
-      <c s="3" r="F6" t="n"/>
-      <c s="3" r="G6" t="n"/>
-    </row>
-    <row customHeight="1" r="7" ht="13.5" spans="1:7">
-      <c s="3" r="A7" t="n"/>
-      <c s="3" r="B7" t="n"/>
-      <c s="3" r="C7" t="n"/>
-      <c s="3" r="D7" t="n"/>
-      <c s="3" r="E7" t="n"/>
-      <c s="3" r="F7" t="n"/>
-      <c s="3" r="G7" t="n"/>
-    </row>
-    <row customHeight="1" r="8" ht="13.5" spans="1:7">
-      <c s="3" r="A8" t="n"/>
-      <c s="3" r="B8" t="n"/>
-      <c s="3" r="C8" t="n"/>
-      <c s="3" r="D8" t="n"/>
-      <c s="3" r="E8" t="n"/>
-      <c s="3" r="F8" t="n"/>
-      <c s="3" r="G8" t="n"/>
-    </row>
-    <row customHeight="1" r="9" ht="13.5" spans="1:7">
-      <c s="3" r="A9" t="n"/>
-      <c s="3" r="B9" t="n"/>
-      <c s="3" r="C9" t="n"/>
-      <c s="3" r="D9" t="n"/>
-      <c s="3" r="E9" t="n"/>
-      <c s="3" r="F9" t="n"/>
-      <c s="3" r="G9" t="n"/>
-    </row>
-    <row customHeight="1" r="10" ht="13.5" spans="1:7">
-      <c s="3" r="A10" t="n"/>
-      <c s="3" r="B10" t="n"/>
-      <c s="3" r="C10" t="n"/>
-      <c s="3" r="D10" t="n"/>
-      <c s="3" r="E10" t="n"/>
-      <c s="3" r="F10" t="n"/>
-      <c s="3" r="G10" t="n"/>
-    </row>
-    <row customHeight="1" r="11" ht="13.5" spans="1:7">
-      <c s="3" r="A11" t="n"/>
-      <c s="3" r="B11" t="n"/>
-      <c s="3" r="C11" t="n"/>
-      <c s="3" r="D11" t="n"/>
-      <c s="3" r="E11" t="n"/>
-      <c s="3" r="F11" t="n"/>
-      <c s="3" r="G11" t="n"/>
-    </row>
-    <row customHeight="1" r="12" ht="13.5" spans="1:7">
-      <c s="3" r="A12" t="n"/>
-      <c s="3" r="B12" t="n"/>
-      <c s="3" r="C12" t="n"/>
-      <c s="3" r="D12" t="n"/>
-      <c s="3" r="E12" t="n"/>
-      <c s="3" r="F12" t="n"/>
-      <c s="3" r="G12" t="n"/>
-    </row>
-    <row customHeight="1" r="13" ht="13.5" spans="1:7">
-      <c s="3" r="A13" t="n"/>
-      <c s="3" r="B13" t="n"/>
-      <c s="3" r="C13" t="n"/>
-      <c s="3" r="D13" t="n"/>
-      <c s="3" r="E13" t="n"/>
-      <c s="3" r="F13" t="n"/>
-      <c s="3" r="G13" t="n"/>
-    </row>
-    <row customHeight="1" r="14" ht="13.5" spans="1:7">
-      <c s="3" r="A14" t="n"/>
-      <c s="3" r="B14" t="n"/>
-      <c s="3" r="C14" t="n"/>
-      <c s="3" r="D14" t="n"/>
-      <c s="3" r="E14" t="n"/>
-      <c s="3" r="F14" t="n"/>
-      <c s="3" r="G14" t="n"/>
-    </row>
-    <row customHeight="1" r="15" ht="13.5" spans="1:7">
-      <c s="3" r="A15" t="n"/>
-      <c s="3" r="B15" t="n"/>
-      <c s="3" r="C15" t="n"/>
-      <c s="3" r="D15" t="n"/>
-      <c s="3" r="E15" t="n"/>
-      <c s="3" r="F15" t="n"/>
-      <c s="3" r="G15" t="n"/>
-    </row>
-    <row customHeight="1" r="16" ht="13.5" spans="1:7">
-      <c s="3" r="A16" t="n"/>
-      <c s="3" r="B16" t="n"/>
-      <c s="3" r="C16" t="n"/>
-      <c s="3" r="D16" t="n"/>
-      <c s="3" r="E16" t="n"/>
-      <c s="3" r="F16" t="n"/>
-      <c s="3" r="G16" t="n"/>
-    </row>
-    <row customHeight="1" r="17" ht="13.5" spans="1:7">
-      <c s="3" r="A17" t="n"/>
-      <c s="3" r="B17" t="n"/>
-      <c s="3" r="C17" t="n"/>
-      <c s="3" r="D17" t="n"/>
-      <c s="3" r="E17" t="n"/>
-      <c s="3" r="F17" t="n"/>
-      <c s="3" r="G17" t="n"/>
-    </row>
-    <row customHeight="1" r="18" ht="13.5" spans="1:7">
-      <c s="3" r="A18" t="n"/>
-      <c s="3" r="B18" t="n"/>
-      <c s="3" r="C18" t="n"/>
-      <c s="3" r="D18" t="n"/>
-      <c s="3" r="E18" t="n"/>
-      <c s="3" r="F18" t="n"/>
-      <c s="3" r="G18" t="n"/>
-    </row>
-    <row customHeight="1" r="19" ht="13.5" spans="1:7">
-      <c s="3" r="A19" t="n"/>
-      <c s="3" r="B19" t="n"/>
-      <c s="3" r="C19" t="n"/>
-      <c s="3" r="D19" t="n"/>
-      <c s="3" r="E19" t="n"/>
-      <c s="3" r="F19" t="n"/>
-      <c s="3" r="G19" t="n"/>
-    </row>
-    <row customHeight="1" r="20" ht="13.5" spans="1:7">
-      <c s="3" r="A20" t="n"/>
-      <c s="3" r="B20" t="n"/>
-      <c s="3" r="C20" t="n"/>
-      <c s="3" r="D20" t="n"/>
-      <c s="3" r="E20" t="n"/>
-      <c s="3" r="F20" t="n"/>
-      <c s="3" r="G20" t="n"/>
-    </row>
-    <row customHeight="1" r="21" ht="13.5" spans="1:7">
-      <c s="3" r="A21" t="n"/>
-      <c s="3" r="B21" t="n"/>
-      <c s="3" r="C21" t="n"/>
-      <c s="3" r="D21" t="n"/>
-      <c s="3" r="E21" t="n"/>
-      <c s="3" r="F21" t="n"/>
-      <c s="3" r="G21" t="n"/>
-    </row>
-    <row customHeight="1" r="22" ht="13.5" spans="1:7">
-      <c s="3" r="A22" t="n"/>
-      <c s="3" r="B22" t="n"/>
-      <c s="3" r="C22" t="n"/>
-      <c s="3" r="D22" t="n"/>
-      <c s="3" r="E22" t="n"/>
-      <c s="3" r="F22" t="n"/>
-      <c s="3" r="G22" t="n"/>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <pageSetup firstPageNumber="0" fitToHeight="0" fitToWidth="0" horizontalDpi="300" orientation="portrait" paperSize="9" scale="0" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/문서/자유수강권자 환불/논술2(교재).xlsx
+++ b/문서/자유수강권자 환불/논술2(교재).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>주야</t>
   </si>
@@ -35,6 +35,30 @@
   </si>
   <si>
     <t>개인반환</t>
+  </si>
+  <si>
+    <t>주간</t>
+  </si>
+  <si>
+    <t>2학년</t>
+  </si>
+  <si>
+    <t>1반</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>김서빈</t>
+  </si>
+  <si>
+    <t>4반</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>장민경</t>
   </si>
 </sst>
 </file>
@@ -42,7 +66,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="11">
+  <fonts count="25">
     <font>
       <name val="Arial"/>
       <family val="2"/>
@@ -127,8 +151,106 @@
       <color rgb="00000000"/>
       <sz val="11"/>
     </font>
+    <font>
+      <name val="돋움"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="돋움"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="돋움"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="돋움"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="돋움"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="돋움"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="돋움"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="돋움"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="돋움"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="돋움"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="돋움"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="돋움"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="돋움"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="돋움"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="23">
     <fill>
       <patternFill/>
     </fill>
@@ -156,8 +278,50 @@
     <fill>
       <patternFill/>
     </fill>
+    <fill>
+      <patternFill/>
+    </fill>
+    <fill>
+      <patternFill/>
+    </fill>
+    <fill>
+      <patternFill/>
+    </fill>
+    <fill>
+      <patternFill/>
+    </fill>
+    <fill>
+      <patternFill/>
+    </fill>
+    <fill>
+      <patternFill/>
+    </fill>
+    <fill>
+      <patternFill/>
+    </fill>
+    <fill>
+      <patternFill/>
+    </fill>
+    <fill>
+      <patternFill/>
+    </fill>
+    <fill>
+      <patternFill/>
+    </fill>
+    <fill>
+      <patternFill/>
+    </fill>
+    <fill>
+      <patternFill/>
+    </fill>
+    <fill>
+      <patternFill/>
+    </fill>
+    <fill>
+      <patternFill/>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -182,6 +346,257 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="8"/>
       </left>
       <right style="thin">
@@ -289,7 +704,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="27">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
@@ -297,32 +712,95 @@
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="2" fillId="2" fontId="4" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="5" fillId="2" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="3" fillId="3" fontId="5" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="3" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="4" fillId="4" fontId="6" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyProtection="1" borderId="7" fillId="4" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="5" fillId="5" fontId="7" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="5" fontId="7" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="6" fontId="8" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="6" fontId="8" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="7" fillId="7" fontId="9" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="7" fontId="9" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="8" fontId="10" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyProtection="1" borderId="11" fillId="8" fontId="10" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="12" fillId="9" fontId="11" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="13" fillId="10" fontId="12" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="14" fillId="11" fontId="13" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="15" fillId="12" fontId="14" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="16" fillId="13" fontId="15" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="17" fillId="14" fontId="16" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="18" fillId="15" fontId="17" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="19" fillId="16" fontId="18" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="20" fillId="17" fontId="19" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="21" fillId="18" fontId="20" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="22" fillId="19" fontId="21" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="23" fillId="20" fontId="22" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="24" fillId="21" fontId="23" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="25" fillId="22" fontId="24" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
       <protection hidden="0" locked="1"/>
     </xf>
   </cellXfs>
@@ -623,7 +1101,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -632,26 +1110,72 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c s="3" r="A1" t="s">
+      <c s="6" r="A1" t="s">
         <v>0</v>
       </c>
-      <c s="4" r="B1" t="s">
+      <c s="7" r="B1" t="s">
         <v>1</v>
       </c>
-      <c s="5" r="C1" t="s">
+      <c s="8" r="C1" t="s">
         <v>2</v>
       </c>
-      <c s="6" r="D1" t="s">
+      <c s="9" r="D1" t="s">
         <v>3</v>
       </c>
-      <c s="7" r="E1" t="s">
+      <c s="10" r="E1" t="s">
         <v>4</v>
       </c>
-      <c s="8" r="F1" t="s">
+      <c s="11" r="F1" t="s">
         <v>5</v>
       </c>
-      <c s="9" r="G1" t="s">
+      <c s="12" r="G1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c s="13" r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c s="14" r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c s="15" r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c s="16" r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c s="17" r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c s="18" r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c s="19" r="G2" t="n">
+        <v>-15000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c s="20" r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c s="21" r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c s="22" r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c s="23" r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c s="24" r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c s="25" r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c s="26" r="G3" t="n">
+        <v>-15000</v>
       </c>
     </row>
   </sheetData>
